--- a/зазоры (2).xlsx
+++ b/зазоры (2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9715C5F8-65E9-4337-8AA8-7C6E646D40AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D809233F-8BFD-424C-98B8-1E3D41BC42AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="54">
   <si>
     <t>Толщины/Зазоры</t>
   </si>
@@ -1337,6 +1337,17 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1358,15 +1369,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1385,8 +1387,6 @@
     <xf numFmtId="0" fontId="16" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3798,8 +3798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:S45"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:J15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3810,62 +3810,62 @@
     <row r="2" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="127" t="s">
+      <c r="C2" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="129"/>
-      <c r="L2" s="127" t="s">
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="134"/>
+      <c r="L2" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="128"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="129"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="134"/>
     </row>
     <row r="3" spans="1:19" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="131"/>
-      <c r="E3" s="130" t="s">
+      <c r="D3" s="136"/>
+      <c r="E3" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="131"/>
-      <c r="G3" s="130" t="s">
+      <c r="F3" s="136"/>
+      <c r="G3" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="131"/>
-      <c r="I3" s="132" t="s">
+      <c r="H3" s="136"/>
+      <c r="I3" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="133"/>
-      <c r="L3" s="130" t="s">
+      <c r="J3" s="138"/>
+      <c r="L3" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="131"/>
-      <c r="N3" s="130" t="s">
+      <c r="M3" s="136"/>
+      <c r="N3" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="131"/>
-      <c r="P3" s="130" t="s">
+      <c r="O3" s="136"/>
+      <c r="P3" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="131"/>
-      <c r="R3" s="132" t="s">
+      <c r="Q3" s="136"/>
+      <c r="R3" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="S3" s="133"/>
+      <c r="S3" s="138"/>
     </row>
     <row r="4" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -3924,7 +3924,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="129" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -3964,7 +3964,7 @@
       <c r="S5" s="9"/>
     </row>
     <row r="6" spans="1:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="135"/>
+      <c r="A6" s="130"/>
       <c r="B6" s="12" t="s">
         <v>9</v>
       </c>
@@ -4138,7 +4138,7 @@
       <c r="S10" s="9"/>
     </row>
     <row r="11" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="134" t="s">
+      <c r="A11" s="129" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -4194,7 +4194,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="135"/>
+      <c r="A12" s="130"/>
       <c r="B12" s="15" t="s">
         <v>9</v>
       </c>
@@ -4268,7 +4268,7 @@
       <c r="S13" s="23"/>
     </row>
     <row r="14" spans="1:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="134" t="s">
+      <c r="A14" s="129" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="18" t="s">
@@ -4308,7 +4308,7 @@
       <c r="S14" s="23"/>
     </row>
     <row r="15" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="136"/>
+      <c r="A15" s="131"/>
       <c r="B15" s="25" t="s">
         <v>13</v>
       </c>
@@ -4346,7 +4346,7 @@
       <c r="S15" s="23"/>
     </row>
     <row r="16" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="136"/>
+      <c r="A16" s="131"/>
       <c r="B16" s="29" t="s">
         <v>14</v>
       </c>
@@ -4392,7 +4392,7 @@
       <c r="S16" s="23"/>
     </row>
     <row r="17" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="136"/>
+      <c r="A17" s="131"/>
       <c r="B17" s="29" t="s">
         <v>15</v>
       </c>
@@ -4438,7 +4438,7 @@
       <c r="S17" s="23"/>
     </row>
     <row r="18" spans="1:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="135"/>
+      <c r="A18" s="130"/>
       <c r="B18" s="29" t="s">
         <v>16</v>
       </c>
@@ -4536,7 +4536,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="134" t="s">
+      <c r="A21" s="129" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="36" t="s">
@@ -4576,7 +4576,7 @@
       <c r="S21" s="9"/>
     </row>
     <row r="22" spans="1:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="135"/>
+      <c r="A22" s="130"/>
       <c r="B22" s="39" t="s">
         <v>9</v>
       </c>
@@ -4730,7 +4730,7 @@
       <c r="S26" s="9"/>
     </row>
     <row r="27" spans="1:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="134" t="s">
+      <c r="A27" s="129" t="s">
         <v>47</v>
       </c>
       <c r="B27" s="10" t="s">
@@ -4786,7 +4786,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="135"/>
+      <c r="A28" s="130"/>
       <c r="B28" s="15" t="s">
         <v>9</v>
       </c>
@@ -4962,11 +4962,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A27:A28"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="L2:S2"/>
     <mergeCell ref="C3:D3"/>
@@ -4977,6 +4972,11 @@
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:S3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A27:A28"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="150" orientation="landscape" r:id="rId1"/>
@@ -7554,7 +7554,7 @@
   <dimension ref="B1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="N10" sqref="N10:V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7564,69 +7564,69 @@
       <c r="C2" s="85">
         <v>220</v>
       </c>
-      <c r="D2" s="142" t="s">
+      <c r="D2" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
       <c r="L2" s="85">
         <v>280</v>
       </c>
       <c r="N2" s="85">
         <v>270</v>
       </c>
-      <c r="O2" s="139" t="s">
+      <c r="O2" s="141" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="139"/>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="139"/>
-      <c r="S2" s="139"/>
-      <c r="T2" s="139"/>
-      <c r="U2" s="139"/>
-      <c r="V2" s="139"/>
+      <c r="P2" s="141"/>
+      <c r="Q2" s="141"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="141"/>
+      <c r="T2" s="141"/>
+      <c r="U2" s="141"/>
+      <c r="V2" s="141"/>
       <c r="W2" s="85">
         <v>330</v>
       </c>
     </row>
     <row r="3" spans="2:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="140" t="s">
+      <c r="D3" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="141"/>
-      <c r="F3" s="130" t="s">
+      <c r="E3" s="143"/>
+      <c r="F3" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="131"/>
-      <c r="H3" s="140" t="s">
+      <c r="G3" s="136"/>
+      <c r="H3" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="141"/>
-      <c r="J3" s="132" t="s">
+      <c r="I3" s="143"/>
+      <c r="J3" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="133"/>
-      <c r="O3" s="140" t="s">
+      <c r="K3" s="138"/>
+      <c r="O3" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="141"/>
-      <c r="Q3" s="130" t="s">
+      <c r="P3" s="143"/>
+      <c r="Q3" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="131"/>
-      <c r="S3" s="140" t="s">
+      <c r="R3" s="136"/>
+      <c r="S3" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="141"/>
-      <c r="U3" s="132" t="s">
+      <c r="T3" s="143"/>
+      <c r="U3" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="133"/>
+      <c r="V3" s="138"/>
     </row>
     <row r="4" spans="2:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="88">
@@ -7859,7 +7859,7 @@
       </c>
     </row>
     <row r="8" spans="2:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="139" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="111" t="s">
@@ -7889,9 +7889,36 @@
       <c r="K8" s="124">
         <v>229</v>
       </c>
+      <c r="N8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O8" s="13">
+        <v>152</v>
+      </c>
+      <c r="P8" s="14">
+        <v>178</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>254</v>
+      </c>
+      <c r="R8" s="14">
+        <v>305</v>
+      </c>
+      <c r="S8" s="13">
+        <v>279</v>
+      </c>
+      <c r="T8" s="14">
+        <v>305</v>
+      </c>
+      <c r="U8" s="13">
+        <v>254</v>
+      </c>
+      <c r="V8" s="14">
+        <v>406</v>
+      </c>
     </row>
     <row r="9" spans="2:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="138"/>
+      <c r="B9" s="140"/>
       <c r="C9" s="112" t="s">
         <v>9</v>
       </c>
@@ -7919,9 +7946,36 @@
       <c r="K9" s="125">
         <v>200</v>
       </c>
+      <c r="N9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="16">
+        <v>150</v>
+      </c>
+      <c r="P9" s="17">
+        <v>150</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>250</v>
+      </c>
+      <c r="R9" s="17">
+        <v>300</v>
+      </c>
+      <c r="S9" s="16">
+        <v>300</v>
+      </c>
+      <c r="T9" s="17">
+        <v>300</v>
+      </c>
+      <c r="U9" s="16">
+        <v>250</v>
+      </c>
+      <c r="V9" s="17">
+        <v>350</v>
+      </c>
     </row>
     <row r="10" spans="2:23" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="137" t="s">
+      <c r="B10" s="139" t="s">
         <v>51</v>
       </c>
       <c r="C10" s="126" t="s">
@@ -7951,9 +8005,36 @@
       <c r="K10" s="122">
         <v>279</v>
       </c>
+      <c r="N10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10" s="8">
+        <v>305</v>
+      </c>
+      <c r="P10" s="9">
+        <v>305</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>100</v>
+      </c>
+      <c r="R10" s="9">
+        <v>127</v>
+      </c>
+      <c r="S10" s="8">
+        <v>100</v>
+      </c>
+      <c r="T10" s="9">
+        <v>406</v>
+      </c>
+      <c r="U10" s="8">
+        <v>381</v>
+      </c>
+      <c r="V10" s="9">
+        <v>457</v>
+      </c>
     </row>
     <row r="11" spans="2:23" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="138"/>
+      <c r="B11" s="140"/>
       <c r="C11" s="126" t="s">
         <v>9</v>
       </c>
@@ -7981,9 +8062,36 @@
       <c r="K11" s="93">
         <v>250</v>
       </c>
+      <c r="N11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="O11" s="8">
+        <v>300</v>
+      </c>
+      <c r="P11" s="9">
+        <v>300</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>100</v>
+      </c>
+      <c r="R11" s="9">
+        <v>100</v>
+      </c>
+      <c r="S11" s="8">
+        <v>100</v>
+      </c>
+      <c r="T11" s="9">
+        <v>400</v>
+      </c>
+      <c r="U11" s="8">
+        <v>350</v>
+      </c>
+      <c r="V11" s="9">
+        <v>400</v>
+      </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C12" s="143" t="s">
+      <c r="C12" s="127" t="s">
         <v>53</v>
       </c>
       <c r="D12">
@@ -8020,7 +8128,7 @@
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C13" s="144" t="s">
+      <c r="C13" s="128" t="s">
         <v>52</v>
       </c>
       <c r="D13">
